--- a/sitio/PensumOriginalEnglish.xlsx
+++ b/sitio/PensumOriginalEnglish.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Marquez\Desktop\SITIOSWEB\sitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D359E5-C9E6-475B-8CD2-5E9357D2DADB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8652131-CE71-4D5E-BCF8-84FAF9B79CD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="293" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="293" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Actual" sheetId="9" r:id="rId1"/>
-    <sheet name="1993-1998" sheetId="11" r:id="rId2"/>
+    <sheet name="Actual" sheetId="11" r:id="rId1"/>
+    <sheet name="1993-1998 " sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="198">
   <si>
     <t>MTE115</t>
   </si>
@@ -275,9 +275,6 @@
     <t xml:space="preserve"> FACULTAD DE INGENIERIA Y ARQUITECTURA </t>
   </si>
   <si>
-    <t>CARRERA: INGENIERIA DE SISTEMAS INFORMÁTICOS</t>
-  </si>
-  <si>
     <t>FDE115</t>
   </si>
   <si>
@@ -293,15 +290,6 @@
     <t>I,II,III</t>
   </si>
   <si>
-    <t>Modelos Económicos</t>
-  </si>
-  <si>
-    <t>PLAN DE ESTUDIOS 1993-1998</t>
-  </si>
-  <si>
-    <t>Ingenieria Financiera</t>
-  </si>
-  <si>
     <t>17,18</t>
   </si>
   <si>
@@ -353,15 +341,6 @@
     <t>TDS115</t>
   </si>
   <si>
-    <t>Int. a la programación de APP Móviles</t>
-  </si>
-  <si>
-    <t>18,26</t>
-  </si>
-  <si>
-    <t>PAM115</t>
-  </si>
-  <si>
     <t>PDD115</t>
   </si>
   <si>
@@ -398,19 +377,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>PLAN DE ESTUDIOS 1998 ACTUAL</t>
-  </si>
-  <si>
-    <t>FPI115</t>
-  </si>
-  <si>
     <t>EBB115</t>
-  </si>
-  <si>
-    <t>FBD115</t>
-  </si>
-  <si>
-    <t>IPI115</t>
   </si>
   <si>
     <t>W</t>
@@ -628,28 +595,31 @@
     <t>Analysis of Informatics Costs</t>
   </si>
   <si>
-    <t>Fundamentals of Internet Programming</t>
-  </si>
-  <si>
     <t>Embedded Systems I</t>
   </si>
   <si>
-    <t>Basics of Database</t>
-  </si>
-  <si>
-    <t>18,21</t>
-  </si>
-  <si>
     <t>22,26</t>
   </si>
   <si>
-    <t>Data Communication Technology</t>
-  </si>
-  <si>
-    <t>Introduction to Internet Programming</t>
-  </si>
-  <si>
     <t>Object-Oriented Programming</t>
+  </si>
+  <si>
+    <t>No Offered</t>
+  </si>
+  <si>
+    <t>Economic Models</t>
+  </si>
+  <si>
+    <t>Financial Engineering</t>
+  </si>
+  <si>
+    <t>CURRENT STUDY PLAN</t>
+  </si>
+  <si>
+    <t>CARRER: INFORMATION SYSTEMS ENGINEERING</t>
+  </si>
+  <si>
+    <t>STUDY PLAN BETWEEN 1993 AND 1998</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,19 +1108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1180,16 +1140,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,14 +1190,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,20 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,10 +1256,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC0B1E-D344-4035-AAF2-F8CE30A60462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AEEC4-A264-46F3-926B-CF90B1DD9846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1324,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AEEC4-A264-46F3-926B-CF90B1DD9846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349065B7-F585-4569-94A7-B0E217BBD0DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,11 +1689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2212B1-D829-49E0-A204-D0FFF5540E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4030761-18DC-4648-957B-684C79604405}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56:U57"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,277 +1760,277 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
       <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
       <c r="AG4" s="9"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
       <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="52" t="s">
+      <c r="O7" s="47"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="52" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="52" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="52" t="s">
+      <c r="X7" s="47"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="52" t="s">
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="14" t="s">
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15" t="s">
         <v>81</v>
       </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
       <c r="AG8" s="9"/>
     </row>
     <row r="9" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2141,53 +2110,53 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="51"/>
+      <c r="O10" s="49"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="51"/>
+      <c r="U10" s="49"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="50" t="s">
+      <c r="W10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="51"/>
+      <c r="X10" s="49"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="50" t="s">
+      <c r="Z10" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="51"/>
+      <c r="AA10" s="49"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="50" t="s">
+      <c r="AC10" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="51"/>
+      <c r="AD10" s="49"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="4" t="s">
         <v>70</v>
@@ -2196,55 +2165,55 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="45"/>
+      <c r="B11" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="51"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="51"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="U11" s="45"/>
+      <c r="T11" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="51"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="X11" s="45"/>
+      <c r="W11" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="51"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="45"/>
+      <c r="Z11" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA11" s="51"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="4" t="s">
         <v>63</v>
@@ -2253,35 +2222,35 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="53"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="4" t="s">
         <v>64</v>
@@ -2290,53 +2259,53 @@
     </row>
     <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="48">
+      <c r="K13" s="54">
         <v>10</v>
       </c>
-      <c r="L13" s="49"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="48">
+      <c r="T13" s="54">
         <v>26</v>
       </c>
-      <c r="U13" s="49"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="48">
+      <c r="W13" s="54">
         <v>30</v>
       </c>
-      <c r="X13" s="49"/>
+      <c r="X13" s="55"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="48" t="s">
+      <c r="Z13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="49"/>
+      <c r="AA13" s="55"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="48" t="s">
+      <c r="AC13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="49"/>
+      <c r="AD13" s="55"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="4" t="s">
         <v>68</v>
@@ -2459,53 +2428,53 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="51"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="51"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="50" t="s">
+      <c r="Q16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="51"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="50" t="s">
+      <c r="W16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="51"/>
+      <c r="X16" s="49"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="50" t="s">
+      <c r="Z16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="51"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="50" t="s">
+      <c r="AC16" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="AD16" s="51"/>
+      <c r="AD16" s="49"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="4" t="s">
         <v>62</v>
@@ -2514,55 +2483,55 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="45"/>
+      <c r="B17" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="51"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="45"/>
+      <c r="E17" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="51"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="H17" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="51"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="45"/>
+      <c r="K17" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="51"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="45"/>
+      <c r="N17" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="51"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="R17" s="45"/>
+      <c r="Q17" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="51"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" s="45"/>
+      <c r="T17" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="51"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="X17" s="45"/>
+      <c r="W17" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" s="51"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA17" s="45"/>
+      <c r="Z17" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" s="51"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD17" s="45"/>
+      <c r="AC17" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD17" s="51"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="4" t="s">
         <v>3</v>
@@ -2571,35 +2540,35 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="53"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="4" t="s">
         <v>67</v>
@@ -2608,53 +2577,53 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="48">
+      <c r="E19" s="54">
         <v>2</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="48">
+      <c r="H19" s="54">
         <v>6</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="48">
+      <c r="K19" s="54">
         <v>11</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="48" t="s">
+      <c r="N19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="49"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="49"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="48">
+      <c r="W19" s="54">
         <v>30</v>
       </c>
-      <c r="X19" s="49"/>
+      <c r="X19" s="55"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="48">
+      <c r="Z19" s="54">
         <v>32</v>
       </c>
-      <c r="AA19" s="49"/>
+      <c r="AA19" s="55"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="48" t="s">
+      <c r="AC19" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="49"/>
+      <c r="AD19" s="55"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="4" t="s">
         <v>73</v>
@@ -2769,61 +2738,61 @@
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AG21" s="9"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="51"/>
+      <c r="B22" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="49"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="51"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="51"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="51"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="R22" s="51"/>
+      <c r="R22" s="49"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="49"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD22" s="51"/>
+      <c r="AD22" s="49"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="4" t="s">
         <v>67</v>
@@ -2832,55 +2801,55 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="51"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="45"/>
+      <c r="E23" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="51"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="45"/>
+      <c r="H23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="51"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="45"/>
+      <c r="K23" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="51"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" s="45"/>
+      <c r="N23" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="51"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="R23" s="45"/>
+      <c r="Q23" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="R23" s="51"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="U23" s="45"/>
+      <c r="T23" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="51"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="X23" s="45"/>
+      <c r="W23" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="51"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA23" s="45"/>
+      <c r="Z23" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA23" s="51"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD23" s="45"/>
+      <c r="AC23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD23" s="51"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="4" t="s">
         <v>63</v>
@@ -2889,92 +2858,92 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="53"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="53"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="53"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="53"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="53"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AG24" s="9"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="48">
+      <c r="E25" s="54">
         <v>3</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="48">
+      <c r="H25" s="54">
         <v>7</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="48">
+      <c r="K25" s="54">
         <v>12</v>
       </c>
-      <c r="L25" s="49"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="49"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="48">
+      <c r="Q25" s="54">
         <v>22</v>
       </c>
-      <c r="R25" s="49"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="48">
+      <c r="T25" s="54">
         <v>27</v>
       </c>
-      <c r="U25" s="49"/>
+      <c r="U25" s="55"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="48" t="s">
+      <c r="W25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="49"/>
+      <c r="X25" s="55"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="48" t="s">
+      <c r="Z25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AA25" s="49"/>
+      <c r="AA25" s="55"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="48" t="s">
+      <c r="AC25" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="49"/>
+      <c r="AD25" s="55"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="9"/>
@@ -3091,199 +3060,199 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="51"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="51"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="51"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="50" t="s">
+      <c r="Q28" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="51"/>
+      <c r="R28" s="49"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="50" t="s">
+      <c r="T28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="51"/>
+      <c r="U28" s="49"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="X28" s="51"/>
+      <c r="W28" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="X28" s="49"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="50" t="s">
+      <c r="Z28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AA28" s="51"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="49"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="9"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="51"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="51"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="44" t="s">
+      <c r="R29" s="51"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" s="51"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29" s="45"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA29" s="45"/>
+      <c r="AA29" s="51"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD29" s="45"/>
+      <c r="AC29" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD29" s="51"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="9"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="53"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="53"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="47"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="53"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="9"/>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="48">
+      <c r="E31" s="54">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="48">
+      <c r="H31" s="54">
         <v>6</v>
       </c>
-      <c r="I31" s="49"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="48">
+      <c r="K31" s="54">
         <v>12</v>
       </c>
-      <c r="L31" s="49"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="48">
+      <c r="N31" s="54">
         <v>18</v>
       </c>
-      <c r="O31" s="49"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="48">
+      <c r="Q31" s="54">
         <v>12</v>
       </c>
-      <c r="R31" s="49"/>
+      <c r="R31" s="55"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="49"/>
+      <c r="U31" s="55"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="48">
+      <c r="W31" s="54">
         <v>33</v>
       </c>
-      <c r="X31" s="49"/>
+      <c r="X31" s="55"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="48">
+      <c r="Z31" s="54">
         <v>38</v>
       </c>
-      <c r="AA31" s="49"/>
+      <c r="AA31" s="55"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="49"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="55"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AG31" s="9"/>
     </row>
@@ -3394,39 +3363,39 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="51"/>
+      <c r="E34" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="51"/>
+      <c r="H34" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="49"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="51"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="51"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="50" t="s">
+      <c r="Q34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="51"/>
+      <c r="R34" s="49"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="51"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="51"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="51"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="11"/>
@@ -3439,50 +3408,50 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="51"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="51"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" s="51"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="O35" s="45"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="U35" s="45"/>
+      <c r="U35" s="51"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="X35" s="45"/>
+      <c r="W35" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" s="51"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA35" s="45"/>
+      <c r="Z35" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA35" s="51"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="17"/>
+      <c r="AF35" s="15"/>
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -3490,29 +3459,29 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="47"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="53"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="47"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="53"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="53"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="11"/>
@@ -3525,39 +3494,39 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="48">
-        <v>4</v>
-      </c>
-      <c r="F37" s="49"/>
+      <c r="E37" s="54">
+        <v>4</v>
+      </c>
+      <c r="F37" s="55"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="48">
+      <c r="K37" s="54">
         <v>13</v>
       </c>
-      <c r="L37" s="49"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="48">
+      <c r="N37" s="54">
         <v>19</v>
       </c>
-      <c r="O37" s="49"/>
+      <c r="O37" s="55"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="48">
+      <c r="Q37" s="54">
         <v>23</v>
       </c>
-      <c r="R37" s="49"/>
+      <c r="R37" s="55"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="55"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="49"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="55"/>
       <c r="Y37" s="9"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="49"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="55"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
@@ -3569,24 +3538,24 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -3604,29 +3573,31 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="9"/>
+      <c r="T39" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="44"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -3641,29 +3612,31 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="9"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="U40" s="45"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -3678,31 +3651,31 @@
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="24"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="20"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="9"/>
@@ -3713,68 +3686,64 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I42" s="2">
         <v>4</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="2">
         <v>4</v>
       </c>
-      <c r="M42" s="26"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O42" s="2">
         <v>4</v>
       </c>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R42" s="2">
-        <v>4</v>
-      </c>
-      <c r="S42" s="26"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="42"/>
       <c r="T42" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="U42" s="2">
         <v>4</v>
       </c>
-      <c r="V42" s="26"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="X42" s="2">
         <v>4</v>
       </c>
-      <c r="Y42" s="26"/>
+      <c r="Y42" s="22"/>
       <c r="Z42" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AA42" s="2">
         <v>4</v>
       </c>
-      <c r="AB42" s="27"/>
+      <c r="AB42" s="23"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG42" s="9"/>
     </row>
@@ -3782,47 +3751,45 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="50" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="51"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="L43" s="51"/>
+      <c r="K43" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="49"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="50" t="s">
+      <c r="N43" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="51"/>
+      <c r="O43" s="49"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="R43" s="51"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="U43" s="51"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="57"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="X43" s="43"/>
+      <c r="W43" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="X43" s="49"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="28"/>
+      <c r="Z43" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="24"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -3835,47 +3802,45 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="45"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="51"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="I44" s="45"/>
+      <c r="H44" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="51"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="44" t="s">
+      <c r="K44" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="51"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="O44" s="51"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="U44" s="51"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L44" s="45"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="O44" s="45"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="U44" s="45"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="29"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="25"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -3888,31 +3853,31 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="47"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="53"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="47"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="53"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="30"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="26"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -3925,52 +3890,50 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="48" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="49"/>
+      <c r="L46" s="55"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O46" s="49"/>
+      <c r="N46" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="O46" s="55"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="R46" s="49"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="U46" s="49"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="58">
+        <v>17</v>
+      </c>
+      <c r="U46" s="59"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="X46" s="41"/>
+      <c r="W46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="55"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="40">
+      <c r="Z46" s="54">
         <v>29</v>
       </c>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="31"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="27"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG46" s="9"/>
     </row>
@@ -3978,7 +3941,7 @@
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3991,21 +3954,21 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="Q47" s="24"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
+      <c r="S47" s="21"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="32"/>
+      <c r="W47" s="28"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="31"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="27"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="9"/>
     </row>
@@ -4013,66 +3976,58 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I48" s="2">
         <v>4</v>
       </c>
-      <c r="J48" s="26"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O48" s="2">
         <v>4</v>
       </c>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="1" t="s">
+      <c r="P48" s="22"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="R48" s="2">
-        <v>4</v>
-      </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="U48" s="2">
         <v>4</v>
       </c>
       <c r="V48" s="11"/>
       <c r="W48" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="X48" s="2">
         <v>4</v>
       </c>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="33"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="29"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="9"/>
     </row>
@@ -4080,50 +4035,46 @@
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="50" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="49"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="51"/>
+      <c r="L49" s="49"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="50" t="s">
+      <c r="N49" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="O49" s="51"/>
+      <c r="O49" s="49"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="U49" s="49"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="X49" s="43"/>
+      <c r="W49" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="X49" s="49"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="28"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="24"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="9"/>
     </row>
@@ -4131,50 +4082,46 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="45"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="51"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="45"/>
+      <c r="H50" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="51"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="L50" s="45"/>
+      <c r="K50" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="51"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="O50" s="45"/>
+      <c r="N50" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="O50" s="51"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R50" s="45"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="U50" s="45"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="U50" s="51"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="X50" s="45"/>
+      <c r="W50" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="X50" s="51"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="29"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="25"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="55"/>
-      <c r="AE50" s="55"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="9"/>
     </row>
@@ -4182,31 +4129,31 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="47"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="53"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="47"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="53"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="30"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="26"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
@@ -4217,47 +4164,43 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="48">
+      <c r="D52" s="21"/>
+      <c r="E52" s="54">
         <v>18</v>
       </c>
-      <c r="F52" s="49"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="48">
+      <c r="H52" s="54">
         <v>35</v>
       </c>
-      <c r="I52" s="49"/>
+      <c r="I52" s="55"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" s="49"/>
+      <c r="K52" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" s="55"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="48">
+      <c r="N52" s="54">
         <v>42</v>
       </c>
-      <c r="O52" s="49"/>
+      <c r="O52" s="55"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="40" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q52" s="40"/>
       <c r="R52" s="41"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="40">
-        <v>17</v>
-      </c>
-      <c r="U52" s="41"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="54">
+        <v>35</v>
+      </c>
+      <c r="U52" s="55"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="40">
-        <v>43</v>
-      </c>
-      <c r="X52" s="41"/>
+      <c r="W52" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="55"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="48">
-        <v>18</v>
-      </c>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="31"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="27"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
@@ -4268,7 +4211,7 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="25"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4281,9 +4224,9 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="Q53" s="24"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
@@ -4291,8 +4234,8 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="31"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="27"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -4303,7 +4246,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="25"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1" t="s">
         <v>72</v>
       </c>
@@ -4312,7 +4255,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I54" s="2">
         <v>4</v>
@@ -4326,40 +4269,32 @@
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O54" s="2">
         <v>4</v>
       </c>
       <c r="P54" s="11"/>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" s="40"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="R54" s="2">
-        <v>4</v>
-      </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="U54" s="2">
         <v>4</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X54" s="2">
         <v>4</v>
       </c>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="33"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="29"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
@@ -4370,98 +4305,90 @@
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="42" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="57"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" s="51"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="51"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="O55" s="51"/>
+      <c r="O55" s="49"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="R55" s="51"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="U55" s="57"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="X55" s="43"/>
+      <c r="W55" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="X55" s="57"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="28"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="24"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="9"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="45"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="51"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="45"/>
+      <c r="H56" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="51"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="L56" s="45"/>
+      <c r="K56" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56" s="51"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="45"/>
+      <c r="N56" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="O56" s="51"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="R56" s="45"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="U56" s="45"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="U56" s="51"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="X56" s="45"/>
+      <c r="W56" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="X56" s="51"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="28"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="24"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -4472,31 +4399,31 @@
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="53"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="47"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="53"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="47"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="53"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="28"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="24"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -4507,47 +4434,43 @@
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="41"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="55"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="48">
-        <v>35</v>
-      </c>
-      <c r="I58" s="49"/>
+      <c r="H58" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="59"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58" s="49"/>
+      <c r="K58" s="58">
+        <v>43</v>
+      </c>
+      <c r="L58" s="59"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="O58" s="49"/>
+      <c r="N58" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="55"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="48">
-        <v>29</v>
-      </c>
-      <c r="R58" s="49"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="U58" s="41"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="59"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="X58" s="41"/>
+      <c r="W58" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="59"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="48">
-        <v>35</v>
-      </c>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="28"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="24"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -4558,31 +4481,31 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="36"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="32"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -4590,82 +4513,83 @@
       <c r="AG59" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="235">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AD48:AE49"/>
-    <mergeCell ref="AD50:AE50"/>
+  <mergeCells count="228">
+    <mergeCell ref="Z44:AA45"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="Z56:AA57"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="T56:U57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="Z50:AA51"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="Q50:R51"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T56:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="Q56:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="Q44:R45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="H56:I57"/>
-    <mergeCell ref="W50:X51"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="T55:U55"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="W50:X51"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="W44:X45"/>
+    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="W46:X46"/>
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
     <mergeCell ref="N55:O55"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T50:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="T46:U46"/>
     <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X45"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="K44:L45"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="K34:L34"/>
@@ -4782,18 +4706,6 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="T11:U12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="W10:X10"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="B11:C12"/>
@@ -4802,6 +4714,12 @@
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="N11:O12"/>
     <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="T40:U40"/>
     <mergeCell ref="D2:AF2"/>
     <mergeCell ref="D3:AF3"/>
     <mergeCell ref="D4:AF4"/>
@@ -4816,16 +4734,14 @@
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z44:AA45"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z50:AA51"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="Z56:AA57"/>
-    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="W10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4833,11 +4749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4030761-18DC-4648-957B-684C79604405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043CBA6-BA30-4089-BBAC-86D48B28749D}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:U12"/>
+    <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,277 +4820,277 @@
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
       <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
       <c r="AG4" s="9"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
       <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="52" t="s">
+      <c r="O7" s="47"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="52" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="52" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="52" t="s">
+      <c r="X7" s="47"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="52" t="s">
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18" t="s">
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="36" t="s">
         <v>81</v>
       </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
       <c r="AG8" s="9"/>
     </row>
     <row r="9" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5254,53 +5170,53 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="51"/>
+      <c r="O10" s="49"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="51"/>
+      <c r="U10" s="49"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="50" t="s">
+      <c r="W10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="51"/>
+      <c r="X10" s="49"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="50" t="s">
+      <c r="Z10" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="51"/>
+      <c r="AA10" s="49"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="50" t="s">
+      <c r="AC10" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="51"/>
+      <c r="AD10" s="49"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="4" t="s">
         <v>70</v>
@@ -5309,55 +5225,55 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="45"/>
+      <c r="B11" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="51"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="51"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="U11" s="45"/>
+      <c r="T11" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="51"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="X11" s="45"/>
+      <c r="W11" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="51"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="45"/>
+      <c r="Z11" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA11" s="51"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="4" t="s">
         <v>63</v>
@@ -5366,35 +5282,35 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="53"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="4" t="s">
         <v>64</v>
@@ -5403,53 +5319,53 @@
     </row>
     <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="48">
+      <c r="K13" s="54">
         <v>10</v>
       </c>
-      <c r="L13" s="49"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="48">
+      <c r="T13" s="54">
         <v>26</v>
       </c>
-      <c r="U13" s="49"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="48">
+      <c r="W13" s="54">
         <v>30</v>
       </c>
-      <c r="X13" s="49"/>
+      <c r="X13" s="55"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="48" t="s">
+      <c r="Z13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="49"/>
+      <c r="AA13" s="55"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="48" t="s">
+      <c r="AC13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="49"/>
+      <c r="AD13" s="55"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="4" t="s">
         <v>68</v>
@@ -5572,53 +5488,53 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="51"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="51"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="50" t="s">
+      <c r="Q16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="51"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="50" t="s">
+      <c r="W16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="51"/>
+      <c r="X16" s="49"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="50" t="s">
+      <c r="Z16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="51"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="50" t="s">
+      <c r="AC16" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="AD16" s="51"/>
+      <c r="AD16" s="49"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="4" t="s">
         <v>62</v>
@@ -5627,55 +5543,55 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="45"/>
+      <c r="B17" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="51"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="45"/>
+      <c r="E17" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="51"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="H17" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="51"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="45"/>
+      <c r="K17" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="51"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="45"/>
+      <c r="N17" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="51"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="R17" s="45"/>
+      <c r="Q17" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="51"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" s="45"/>
+      <c r="T17" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="51"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="X17" s="45"/>
+      <c r="W17" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" s="51"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA17" s="45"/>
+      <c r="Z17" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" s="51"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD17" s="45"/>
+      <c r="AC17" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD17" s="51"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="4" t="s">
         <v>3</v>
@@ -5684,35 +5600,35 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="53"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="4" t="s">
         <v>67</v>
@@ -5721,53 +5637,53 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="48">
+      <c r="E19" s="54">
         <v>2</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="48">
+      <c r="H19" s="54">
         <v>6</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="48">
+      <c r="K19" s="54">
         <v>11</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="48" t="s">
+      <c r="N19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="49"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="49"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="48">
+      <c r="W19" s="54">
         <v>30</v>
       </c>
-      <c r="X19" s="49"/>
+      <c r="X19" s="55"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="48">
+      <c r="Z19" s="54">
         <v>32</v>
       </c>
-      <c r="AA19" s="49"/>
+      <c r="AA19" s="55"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="48" t="s">
+      <c r="AC19" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="49"/>
+      <c r="AD19" s="55"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="4" t="s">
         <v>73</v>
@@ -5882,61 +5798,61 @@
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AG21" s="9"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="51"/>
+      <c r="B22" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="49"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="51"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="51"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="51"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="R22" s="51"/>
+      <c r="R22" s="49"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="49"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD22" s="51"/>
+      <c r="AD22" s="49"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="4" t="s">
         <v>67</v>
@@ -5945,55 +5861,55 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="51"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="45"/>
+      <c r="E23" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="51"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="45"/>
+      <c r="H23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="51"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="45"/>
+      <c r="K23" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="51"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" s="45"/>
+      <c r="N23" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="51"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="R23" s="45"/>
+      <c r="Q23" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="R23" s="51"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="U23" s="45"/>
+      <c r="T23" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="51"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="X23" s="45"/>
+      <c r="W23" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="51"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA23" s="45"/>
+      <c r="Z23" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA23" s="51"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD23" s="45"/>
+      <c r="AC23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD23" s="51"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="4" t="s">
         <v>63</v>
@@ -6002,92 +5918,92 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="53"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="53"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="53"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="53"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="53"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AG24" s="9"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="48">
+      <c r="E25" s="54">
         <v>3</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="48">
+      <c r="H25" s="54">
         <v>7</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="48">
+      <c r="K25" s="54">
         <v>12</v>
       </c>
-      <c r="L25" s="49"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="49"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="48">
+      <c r="Q25" s="54">
         <v>22</v>
       </c>
-      <c r="R25" s="49"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="48">
+      <c r="T25" s="54">
         <v>27</v>
       </c>
-      <c r="U25" s="49"/>
+      <c r="U25" s="55"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="48" t="s">
+      <c r="W25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="49"/>
+      <c r="X25" s="55"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="48" t="s">
+      <c r="Z25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AA25" s="49"/>
+      <c r="AA25" s="55"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="48" t="s">
+      <c r="AC25" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="49"/>
+      <c r="AD25" s="55"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="9"/>
@@ -6204,199 +6120,199 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="51"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="51"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="51"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="R28" s="51"/>
+      <c r="Q28" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="49"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="50" t="s">
+      <c r="T28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="51"/>
+      <c r="U28" s="49"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="X28" s="51"/>
+      <c r="W28" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="X28" s="49"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="50" t="s">
+      <c r="Z28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AA28" s="51"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="51"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="49"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="9"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="45"/>
+      <c r="B29" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="45"/>
+      <c r="E29" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="51"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="51"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="51"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="R29" s="51"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" s="51"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29" s="45"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA29" s="45"/>
+      <c r="AA29" s="51"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD29" s="45"/>
+      <c r="AC29" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD29" s="51"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="9"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="53"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="53"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="47"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="53"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="53"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="9"/>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="48">
+      <c r="E31" s="54">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="48">
+      <c r="H31" s="54">
         <v>6</v>
       </c>
-      <c r="I31" s="49"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="48">
+      <c r="K31" s="54">
         <v>12</v>
       </c>
-      <c r="L31" s="49"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="48">
+      <c r="N31" s="54">
         <v>18</v>
       </c>
-      <c r="O31" s="49"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="48">
+      <c r="Q31" s="54">
         <v>12</v>
       </c>
-      <c r="R31" s="49"/>
+      <c r="R31" s="55"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="49"/>
+      <c r="U31" s="55"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="48">
+      <c r="W31" s="54">
         <v>33</v>
       </c>
-      <c r="X31" s="49"/>
+      <c r="X31" s="55"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="48">
+      <c r="Z31" s="54">
         <v>38</v>
       </c>
-      <c r="AA31" s="49"/>
+      <c r="AA31" s="55"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="49"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="55"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AG31" s="9"/>
     </row>
@@ -6507,39 +6423,39 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="51"/>
+      <c r="E34" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="51"/>
+      <c r="H34" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="49"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="51"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="51"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="50" t="s">
+      <c r="Q34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="51"/>
+      <c r="R34" s="49"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="51"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="51"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="51"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="11"/>
@@ -6552,50 +6468,50 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="51"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="51"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" s="51"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="O35" s="45"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="U35" s="45"/>
+      <c r="U35" s="51"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="X35" s="45"/>
+      <c r="W35" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" s="51"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA35" s="45"/>
+      <c r="Z35" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA35" s="51"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="18"/>
+      <c r="AF35" s="36"/>
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -6603,29 +6519,29 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="47"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="53"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="47"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="53"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="53"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="11"/>
@@ -6638,39 +6554,39 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="48">
-        <v>4</v>
-      </c>
-      <c r="F37" s="49"/>
+      <c r="E37" s="54">
+        <v>4</v>
+      </c>
+      <c r="F37" s="55"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="48">
+      <c r="K37" s="54">
         <v>13</v>
       </c>
-      <c r="L37" s="49"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="48">
+      <c r="N37" s="54">
         <v>19</v>
       </c>
-      <c r="O37" s="49"/>
+      <c r="O37" s="55"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="48">
+      <c r="Q37" s="54">
         <v>23</v>
       </c>
-      <c r="R37" s="49"/>
+      <c r="R37" s="55"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="55"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="49"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="55"/>
       <c r="Y37" s="9"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="49"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="55"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
@@ -6682,24 +6598,24 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -6717,29 +6633,31 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="9"/>
+      <c r="T39" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="44"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -6754,29 +6672,31 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="9"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="U40" s="45"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -6791,31 +6711,31 @@
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="24"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="20"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="9"/>
@@ -6826,68 +6746,64 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I42" s="2">
         <v>4</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="2">
         <v>4</v>
       </c>
-      <c r="M42" s="26"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O42" s="2">
         <v>4</v>
       </c>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R42" s="2">
-        <v>4</v>
-      </c>
-      <c r="S42" s="26"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="42"/>
       <c r="T42" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="U42" s="2">
         <v>4</v>
       </c>
-      <c r="V42" s="26"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="X42" s="2">
         <v>4</v>
       </c>
-      <c r="Y42" s="26"/>
+      <c r="Y42" s="22"/>
       <c r="Z42" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AA42" s="2">
         <v>4</v>
       </c>
-      <c r="AB42" s="27"/>
+      <c r="AB42" s="23"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG42" s="9"/>
     </row>
@@ -6895,47 +6811,45 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="50" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="51"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="L43" s="51"/>
+      <c r="K43" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="49"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="50" t="s">
+      <c r="N43" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="51"/>
+      <c r="O43" s="49"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="R43" s="51"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="U43" s="51"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="57"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="X43" s="43"/>
+      <c r="W43" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="X43" s="49"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="28"/>
+      <c r="Z43" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="24"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6948,47 +6862,45 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="45"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="51"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="I44" s="45"/>
+      <c r="H44" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="51"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="44" t="s">
+      <c r="K44" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="51"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="O44" s="51"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="U44" s="51"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L44" s="45"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="O44" s="45"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="U44" s="45"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="29"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="25"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -7001,31 +6913,31 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="47"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="53"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="47"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="53"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="30"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="26"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -7038,52 +6950,50 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="48" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="49"/>
+      <c r="L46" s="55"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O46" s="49"/>
+      <c r="N46" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="O46" s="55"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="R46" s="49"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="U46" s="49"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="58">
+        <v>17</v>
+      </c>
+      <c r="U46" s="59"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="X46" s="41"/>
+      <c r="W46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="55"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="40">
+      <c r="Z46" s="54">
         <v>29</v>
       </c>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="31"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="27"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG46" s="9"/>
     </row>
@@ -7091,7 +7001,7 @@
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -7104,21 +7014,21 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="Q47" s="24"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
+      <c r="S47" s="21"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="32"/>
+      <c r="W47" s="28"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="31"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="27"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="9"/>
     </row>
@@ -7126,66 +7036,58 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I48" s="2">
         <v>4</v>
       </c>
-      <c r="J48" s="26"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O48" s="2">
         <v>4</v>
       </c>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="1" t="s">
+      <c r="P48" s="22"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="R48" s="2">
-        <v>4</v>
-      </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="U48" s="2">
         <v>4</v>
       </c>
       <c r="V48" s="11"/>
       <c r="W48" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="X48" s="2">
         <v>4</v>
       </c>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="33"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="29"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="9"/>
     </row>
@@ -7193,50 +7095,46 @@
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="50" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="49"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="51"/>
+      <c r="L49" s="49"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="50" t="s">
+      <c r="N49" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="O49" s="51"/>
+      <c r="O49" s="49"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="U49" s="49"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="X49" s="43"/>
+      <c r="W49" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="X49" s="49"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="28"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="24"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="9"/>
     </row>
@@ -7244,50 +7142,46 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="45"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="51"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="45"/>
+      <c r="H50" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="51"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="L50" s="45"/>
+      <c r="K50" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="51"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="O50" s="45"/>
+      <c r="N50" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="O50" s="51"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R50" s="45"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="U50" s="45"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="U50" s="51"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="X50" s="45"/>
+      <c r="W50" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="X50" s="51"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="29"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="25"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="55"/>
-      <c r="AE50" s="55"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="9"/>
     </row>
@@ -7295,31 +7189,31 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="47"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="53"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="47"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="53"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="30"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="26"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
@@ -7330,47 +7224,43 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="48">
+      <c r="D52" s="21"/>
+      <c r="E52" s="54">
         <v>18</v>
       </c>
-      <c r="F52" s="49"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="48">
+      <c r="H52" s="54">
         <v>35</v>
       </c>
-      <c r="I52" s="49"/>
+      <c r="I52" s="55"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" s="49"/>
+      <c r="K52" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" s="55"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="48">
+      <c r="N52" s="54">
         <v>42</v>
       </c>
-      <c r="O52" s="49"/>
+      <c r="O52" s="55"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="R52" s="41"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="40">
-        <v>17</v>
-      </c>
-      <c r="U52" s="41"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="54">
+        <v>35</v>
+      </c>
+      <c r="U52" s="55"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="40">
-        <v>43</v>
-      </c>
-      <c r="X52" s="41"/>
+      <c r="W52" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="55"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="48">
-        <v>18</v>
-      </c>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="31"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="27"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
@@ -7381,7 +7271,7 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="25"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -7394,9 +7284,9 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="Q53" s="24"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
@@ -7404,8 +7294,8 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="31"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="27"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -7416,7 +7306,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="25"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1" t="s">
         <v>72</v>
       </c>
@@ -7425,7 +7315,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I54" s="2">
         <v>4</v>
@@ -7439,40 +7329,32 @@
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O54" s="2">
         <v>4</v>
       </c>
       <c r="P54" s="11"/>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" s="24"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="R54" s="2">
-        <v>4</v>
-      </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="U54" s="2">
         <v>4</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X54" s="2">
         <v>4</v>
       </c>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="33"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="29"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
@@ -7483,98 +7365,90 @@
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="42" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="57"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" s="51"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="51"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="O55" s="51"/>
+      <c r="O55" s="49"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="R55" s="51"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="U55" s="57"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="X55" s="43"/>
+      <c r="W55" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="X55" s="57"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="28"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="24"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="9"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="45"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="51"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="45"/>
+      <c r="H56" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="51"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="L56" s="45"/>
+      <c r="K56" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56" s="51"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="45"/>
+      <c r="N56" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="O56" s="51"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="R56" s="45"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="U56" s="45"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="U56" s="51"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="X56" s="45"/>
+      <c r="W56" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="X56" s="51"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="28"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="24"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -7585,31 +7459,31 @@
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="53"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="47"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="53"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="47"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="53"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="28"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="24"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -7620,47 +7494,43 @@
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="41"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="55"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="48">
-        <v>35</v>
-      </c>
-      <c r="I58" s="49"/>
+      <c r="H58" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="59"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58" s="49"/>
+      <c r="K58" s="58">
+        <v>43</v>
+      </c>
+      <c r="L58" s="59"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="O58" s="49"/>
+      <c r="N58" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="55"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="48">
-        <v>29</v>
-      </c>
-      <c r="R58" s="49"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="U58" s="41"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="59"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="X58" s="41"/>
+      <c r="W58" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="59"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="48">
-        <v>35</v>
-      </c>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="28"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="24"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -7671,31 +7541,31 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="36"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="32"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -7703,92 +7573,147 @@
       <c r="AG59" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="235">
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="H56:I57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="Q56:R57"/>
-    <mergeCell ref="T56:U57"/>
-    <mergeCell ref="W56:X57"/>
-    <mergeCell ref="Z56:AA57"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="Q50:R51"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="W50:X51"/>
-    <mergeCell ref="Z50:AA51"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AD48:AE49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="Q44:R45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="W44:X45"/>
-    <mergeCell ref="Z44:AA45"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
+  <mergeCells count="228">
+    <mergeCell ref="D2:AF2"/>
+    <mergeCell ref="D3:AF3"/>
+    <mergeCell ref="D4:AF4"/>
+    <mergeCell ref="D5:AF5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Z17:AA18"/>
+    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="T23:U24"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Z23:AA24"/>
+    <mergeCell ref="AC23:AD24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="N29:O30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="T29:U30"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Z29:AA30"/>
+    <mergeCell ref="AC29:AD30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Z34:AA34"/>
     <mergeCell ref="E35:F36"/>
@@ -7799,146 +7724,84 @@
     <mergeCell ref="T35:U36"/>
     <mergeCell ref="W35:X36"/>
     <mergeCell ref="Z35:AA36"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T29:U30"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Z29:AA30"/>
-    <mergeCell ref="AC29:AD30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="N29:O30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T23:U24"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Z23:AA24"/>
-    <mergeCell ref="AC23:AD24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Z17:AA18"/>
-    <mergeCell ref="AC17:AD18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T11:U12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D2:AF2"/>
-    <mergeCell ref="D3:AF3"/>
-    <mergeCell ref="D4:AF4"/>
-    <mergeCell ref="D5:AF5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="W44:X45"/>
+    <mergeCell ref="Z44:AA45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AD48:AE49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Z50:AA51"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="T50:U51"/>
+    <mergeCell ref="W50:X51"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="T56:U57"/>
+    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="Z56:AA57"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
